--- a/app/Группы/Отчеты/BillsDebtByGroup.xlsx
+++ b/app/Группы/Отчеты/BillsDebtByGroup.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
@@ -93,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -104,6 +110,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -152,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +408,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +451,7 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -463,7 +472,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
